--- a/575nvf.xlsx
+++ b/575nvf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/575Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6E4ACA25-59BA-EA48-8FD8-3E05A2FDB0ED}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C3041B50-5250-E344-99A4-9054F3407938}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="800" windowWidth="25040" windowHeight="14500" xr2:uid="{4851A2E0-D7D1-3F48-A547-667A291A055A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{4851A2E0-D7D1-3F48-A547-667A291A055A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -895,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535CF885-F1DD-CA41-8358-EC99D2B9C5EE}">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C39" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -949,95 +949,95 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2">
-        <v>2.2599999999999998</v>
+        <v>1.79</v>
       </c>
       <c r="E2" s="2">
-        <v>1021101</v>
+        <v>1025104</v>
       </c>
       <c r="F2">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="H2" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="I2" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="J2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3">
-        <v>1.93</v>
+        <v>2.09</v>
       </c>
       <c r="E3" s="2">
-        <v>1021102</v>
+        <v>1025107</v>
       </c>
       <c r="F3">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="H3" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="I3" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="J3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4">
-        <v>2.48</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="E4" s="2">
-        <v>1021103</v>
+        <v>1021101</v>
       </c>
       <c r="F4">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
         <v>140</v>
       </c>
       <c r="H4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J4" t="s">
         <v>142</v>
@@ -1045,66 +1045,66 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>3.2</v>
+        <v>1.93</v>
       </c>
       <c r="E5" s="2">
-        <v>1021104</v>
+        <v>1021102</v>
       </c>
       <c r="F5">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
         <v>143</v>
       </c>
       <c r="H5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I5" t="s">
         <v>140</v>
       </c>
       <c r="J5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6">
-        <v>3.04</v>
+        <v>3.2</v>
       </c>
       <c r="E6" s="2">
-        <v>1021105</v>
+        <v>1021104</v>
       </c>
       <c r="F6">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H6" t="s">
         <v>140</v>
       </c>
-      <c r="H6" t="s">
-        <v>144</v>
-      </c>
       <c r="I6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -1141,188 +1141,188 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>2.48</v>
       </c>
       <c r="E8" s="2">
-        <v>1021107</v>
+        <v>1022103</v>
       </c>
       <c r="F8">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J8" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9">
-        <v>1.25</v>
+        <v>1.95</v>
       </c>
       <c r="E9" s="2">
-        <v>1021108</v>
+        <v>1022104</v>
       </c>
       <c r="F9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10">
-        <v>5.61</v>
+        <v>3.42</v>
       </c>
       <c r="E10" s="2">
-        <v>1022101</v>
-      </c>
-      <c r="F10" t="s">
-        <v>148</v>
+        <v>1022106</v>
+      </c>
+      <c r="F10">
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H10" t="s">
         <v>143</v>
       </c>
       <c r="I10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="E11" s="2">
-        <v>1022102</v>
+        <v>1023101</v>
       </c>
       <c r="F11">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
+        <v>143</v>
+      </c>
+      <c r="H11" t="s">
+        <v>143</v>
+      </c>
+      <c r="I11" t="s">
         <v>140</v>
       </c>
-      <c r="H11" t="s">
-        <v>140</v>
-      </c>
-      <c r="I11" t="s">
-        <v>144</v>
-      </c>
       <c r="J11" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12">
-        <v>2.48</v>
+        <v>1.05</v>
       </c>
       <c r="E12" s="2">
-        <v>1022103</v>
+        <v>1023103</v>
       </c>
       <c r="F12">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I12" t="s">
         <v>140</v>
       </c>
       <c r="J12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13">
-        <v>1.95</v>
+        <v>1.29</v>
       </c>
       <c r="E13" s="2">
-        <v>1022104</v>
+        <v>1025105</v>
       </c>
       <c r="F13">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H13" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I13" t="s">
         <v>140</v>
@@ -1333,54 +1333,54 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14">
-        <v>3.18</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="E14" s="2">
-        <v>1022105</v>
+        <v>1025106</v>
       </c>
       <c r="F14">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15">
-        <v>3.42</v>
+        <v>3.14</v>
       </c>
       <c r="E15" s="2">
-        <v>1022106</v>
+        <v>1025108</v>
       </c>
       <c r="F15">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G15" t="s">
         <v>143</v>
@@ -1392,59 +1392,59 @@
         <v>140</v>
       </c>
       <c r="J15" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16">
-        <v>2.94</v>
+        <v>1.97</v>
       </c>
       <c r="E16" s="2">
-        <v>1022107</v>
+        <v>1113104</v>
       </c>
       <c r="F16">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G16" t="s">
         <v>143</v>
       </c>
       <c r="H16" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="I16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17">
-        <v>0.43</v>
+        <v>2.62</v>
       </c>
       <c r="E17" s="2">
-        <v>1022108</v>
+        <v>1114101</v>
       </c>
       <c r="F17">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s">
         <v>143</v>
@@ -1453,94 +1453,94 @@
         <v>143</v>
       </c>
       <c r="I17" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J17" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18">
-        <v>1.6</v>
+        <v>2.48</v>
       </c>
       <c r="E18" s="2">
-        <v>1023101</v>
+        <v>1021103</v>
       </c>
       <c r="F18">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I18" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="J18" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>3.04</v>
       </c>
       <c r="E19" s="2">
-        <v>1023102</v>
+        <v>1021105</v>
       </c>
       <c r="F19">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I19" t="s">
         <v>143</v>
       </c>
       <c r="J19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20">
-        <v>1.05</v>
+        <v>2</v>
       </c>
       <c r="E20" s="2">
-        <v>1023103</v>
+        <v>1021107</v>
       </c>
       <c r="F20">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G20" t="s">
         <v>143</v>
@@ -1549,62 +1549,62 @@
         <v>143</v>
       </c>
       <c r="I20" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="J20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21">
-        <v>8.2100000000000009</v>
+        <v>1.25</v>
       </c>
       <c r="E21" s="2">
-        <v>1025101</v>
+        <v>1021108</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H21" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="J21" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22">
-        <v>5.92</v>
+        <v>5.61</v>
       </c>
       <c r="E22" s="2">
-        <v>1025102</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
+        <v>1022101</v>
+      </c>
+      <c r="F22" t="s">
+        <v>148</v>
       </c>
       <c r="G22" t="s">
         <v>144</v>
@@ -1616,91 +1616,91 @@
         <v>143</v>
       </c>
       <c r="J22" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23">
-        <v>7.81</v>
+        <v>3.18</v>
       </c>
       <c r="E23" s="2">
-        <v>1025103</v>
+        <v>1022105</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G23" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H23" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I23" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="J23" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24">
-        <v>1.79</v>
+        <v>2.94</v>
       </c>
       <c r="E24" s="2">
-        <v>1025104</v>
+        <v>1022107</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G24" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="H24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I24" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="J24" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25">
-        <v>1.29</v>
+        <v>0.43</v>
       </c>
       <c r="E25" s="2">
-        <v>1025105</v>
+        <v>1022108</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G25" t="s">
         <v>143</v>
@@ -1709,71 +1709,71 @@
         <v>143</v>
       </c>
       <c r="I25" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="J25" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26">
-        <v>2.0099999999999998</v>
+        <v>2</v>
       </c>
       <c r="E26" s="2">
-        <v>1025106</v>
+        <v>1023102</v>
       </c>
       <c r="F26">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="G26" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H26" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I26" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="J26" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
       </c>
       <c r="D27">
-        <v>2.09</v>
+        <v>5.92</v>
       </c>
       <c r="E27" s="2">
-        <v>1025107</v>
+        <v>1025102</v>
       </c>
       <c r="F27">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="H27" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="I27" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="J27" t="s">
         <v>151</v>
@@ -1781,22 +1781,22 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
       </c>
       <c r="D28">
-        <v>3.14</v>
+        <v>1.99</v>
       </c>
       <c r="E28" s="2">
-        <v>1025108</v>
+        <v>1104101</v>
       </c>
       <c r="F28">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="G28" t="s">
         <v>143</v>
@@ -1805,30 +1805,30 @@
         <v>143</v>
       </c>
       <c r="I28" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="J28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
       </c>
       <c r="D29">
-        <v>1.99</v>
+        <v>1.04</v>
       </c>
       <c r="E29" s="2">
-        <v>1104101</v>
+        <v>1104102</v>
       </c>
       <c r="F29">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G29" t="s">
         <v>143</v>
@@ -1845,22 +1845,22 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
       </c>
       <c r="D30">
-        <v>1.04</v>
+        <v>1.54</v>
       </c>
       <c r="E30" s="2">
-        <v>1104102</v>
+        <v>1104103</v>
       </c>
       <c r="F30">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
         <v>143</v>
@@ -1877,22 +1877,22 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
       </c>
       <c r="D31">
-        <v>1.54</v>
+        <v>2.17</v>
       </c>
       <c r="E31" s="2">
-        <v>1104103</v>
+        <v>1104104</v>
       </c>
       <c r="F31">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
         <v>143</v>
@@ -1909,22 +1909,22 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
       </c>
       <c r="D32">
-        <v>2.17</v>
+        <v>4.32</v>
       </c>
       <c r="E32" s="2">
-        <v>1104104</v>
+        <v>1104105</v>
       </c>
       <c r="F32">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
         <v>143</v>
@@ -1941,22 +1941,22 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
       </c>
       <c r="D33">
-        <v>4.32</v>
+        <v>1.17</v>
       </c>
       <c r="E33" s="2">
-        <v>1104105</v>
+        <v>1104106</v>
       </c>
       <c r="F33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
         <v>143</v>
@@ -1968,27 +1968,27 @@
         <v>143</v>
       </c>
       <c r="J33" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
       </c>
       <c r="D34">
-        <v>1.17</v>
+        <v>1.06</v>
       </c>
       <c r="E34" s="2">
-        <v>1104106</v>
+        <v>1104107</v>
       </c>
       <c r="F34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G34" t="s">
         <v>143</v>
@@ -2000,27 +2000,27 @@
         <v>143</v>
       </c>
       <c r="J34" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
       </c>
       <c r="D35">
-        <v>1.06</v>
+        <v>1.46</v>
       </c>
       <c r="E35" s="2">
-        <v>1104107</v>
+        <v>1104108</v>
       </c>
       <c r="F35">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s">
         <v>143</v>
@@ -2032,30 +2032,30 @@
         <v>143</v>
       </c>
       <c r="J35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
       </c>
       <c r="D36">
-        <v>1.46</v>
+        <v>3.27</v>
       </c>
       <c r="E36" s="2">
-        <v>1104108</v>
+        <v>1114102</v>
       </c>
       <c r="F36">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="H36" t="s">
         <v>143</v>
@@ -2064,36 +2064,36 @@
         <v>143</v>
       </c>
       <c r="J36" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
       </c>
       <c r="D37">
-        <v>1.97</v>
+        <v>6</v>
       </c>
       <c r="E37" s="2">
-        <v>1113104</v>
+        <v>1022102</v>
       </c>
       <c r="F37">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H37" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I37" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="J37" t="s">
         <v>146</v>
@@ -2101,31 +2101,31 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
       </c>
       <c r="D38">
-        <v>2.62</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="E38" s="2">
-        <v>1114101</v>
+        <v>1025101</v>
       </c>
       <c r="F38">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G38" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H38" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I38" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="J38" t="s">
         <v>145</v>
@@ -2133,34 +2133,34 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
       </c>
       <c r="D39">
-        <v>3.27</v>
+        <v>7.81</v>
       </c>
       <c r="E39" s="2">
-        <v>1114102</v>
+        <v>1025103</v>
       </c>
       <c r="F39">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="G39" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="H39" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I39" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J39" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -2678,8 +2678,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J65">
-    <sortCondition ref="C1"/>
+  <sortState ref="A2:M67">
+    <sortCondition ref="C39"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
